--- a/data/long_dif/P16-Edad-long_dif.xlsx
+++ b/data/long_dif/P16-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>30,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 32,25</t>
+          <t>18,77; 35,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 41,42</t>
+          <t>22,85; 44,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 26,81</t>
+          <t>11,85; 28,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,07; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 21,23</t>
+          <t>26,27; 44,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 39,68</t>
+          <t>9,1; 21,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 36,19</t>
+          <t>22,05; 38,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,33</t>
+          <t>24,46; 36,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 32,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 30,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,61%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>53,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>44,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,94; 55,97</t>
+          <t>37,31; 55,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 63,86</t>
+          <t>40,11; 62,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 70,54</t>
+          <t>48,0; 68,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 50,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 64,14</t>
+          <t>32,64; 51,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,08; 58,81</t>
+          <t>43,38; 62,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,7; 50,62</t>
+          <t>43,27; 60,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,85; 61,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,76; 62,57</t>
+          <t>38,06; 50,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44,53; 59,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48,96; 62,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,24; 38,92</t>
+          <t>20,19; 36,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 25,22</t>
+          <t>9,32; 25,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 29,98</t>
+          <t>14,56; 31,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,21; 40,7</t>
+          <t>16,27; 32,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 26,0</t>
+          <t>23,38; 42,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,88</t>
+          <t>11,74; 24,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 29,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,44</t>
+          <t>20,54; 32,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 29,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 25,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 33,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 47,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 29,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 30,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 26,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 29,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 35,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,74; 68,59</t>
+          <t>10,95; 37,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,2; 53,49</t>
+          <t>20,02; 48,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,75; 66,68</t>
+          <t>13,34; 28,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,42; 61,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,84; 63,0</t>
+          <t>15,73; 29,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,99; 62,6</t>
+          <t>13,01; 27,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,61; 62,67</t>
+          <t>13,11; 23,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,74; 63,0</t>
+          <t>15,17; 29,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 36,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 24,39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>58,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>56,27%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 31,1</t>
+          <t>44,61; 69,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 36,07</t>
+          <t>30,31; 53,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 31,49</t>
+          <t>48,09; 69,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 33,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 34,88</t>
+          <t>45,55; 61,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 33,51</t>
+          <t>44,3; 61,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 29,29</t>
+          <t>49,37; 63,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,34; 33,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 30,0</t>
+          <t>48,14; 62,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 54,61</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50,16; 63,48</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,62; 35,78</t>
+          <t>15,6; 31,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 25,16</t>
+          <t>16,89; 41,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,35</t>
+          <t>14,87; 30,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,44</t>
+          <t>17,77; 32,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,64; 22,65</t>
+          <t>20,75; 36,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,25; 30,49</t>
+          <t>19,12; 32,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,66</t>
+          <t>18,19; 28,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,16; 35,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,81; 29,37</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>55,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,77; 65,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,74; 64,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,53; 70,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,49; 62,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,01; 56,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,36; 58,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,88; 62,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,07; 58,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,48; 61,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,77; 36,67</t>
+          <t>12,11; 25,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,5; 33,85</t>
+          <t>13,14; 25,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,63</t>
+          <t>9,54; 18,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,88; 25,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,33; 38,72</t>
+          <t>18,1; 28,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,97; 34,44</t>
+          <t>12,32; 22,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,18; 29,0</t>
+          <t>13,8; 22,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,53; 34,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,9</t>
+          <t>16,34; 24,86</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 22,08</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 19,28</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>56,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57,18%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,16; 26,11</t>
+          <t>47,79; 65,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,97; 26,79</t>
+          <t>48,01; 66,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,88; 30,24</t>
+          <t>53,81; 68,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,8; 27,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,59</t>
+          <t>49,18; 63,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,12</t>
+          <t>43,68; 57,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,57</t>
+          <t>46,51; 58,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,55; 20,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,65; 22,97</t>
+          <t>51,39; 62,6</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>48,36; 59,1</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>52,13; 61,92</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>50,11; 64,66</t>
+          <t>18,26; 34,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>47,07; 62,71</t>
+          <t>17,9; 32,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46,82; 60,82</t>
+          <t>18,67; 31,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53,97; 66,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,31; 70,54</t>
+          <t>15,49; 26,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>51,85; 63,04</t>
+          <t>26,62; 38,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>54,7; 64,15</t>
+          <t>24,42; 35,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>54,83; 64,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>50,78; 60,05</t>
+          <t>18,14; 27,92</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 33,15</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 31,39</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>16,88; 29,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,42; 34,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,93; 30,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,78; 22,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,82; 33,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,17; 23,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>14,21; 29,98</t>
+          <t>14,13; 24,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>16,46; 29,71</t>
+          <t>15,47; 26,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,74</t>
+          <t>16,67; 31,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,7</t>
+          <t>17,82; 28,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,71; 22,26</t>
+          <t>8,94; 17,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,14; 22,37</t>
+          <t>10,01; 17,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>14,58; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,74; 19,83</t>
+          <t>17,44; 24,67</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 20,59</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,29</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>58,78%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>60,41%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>55,94%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>41,61; 58,88</t>
+          <t>50,75; 64,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>47,57; 63,16</t>
+          <t>48,26; 64,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>53,98; 67,98</t>
+          <t>46,68; 60,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>52,57; 67,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>49,61; 65,73</t>
+          <t>53,67; 66,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>56,18; 69,89</t>
+          <t>58,21; 70,63</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>49,06; 61,07</t>
+          <t>51,81; 62,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>51,73; 63,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>57,36; 67,04</t>
+          <t>54,48; 63,22</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>55,5; 64,99</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>51,83; 60,17</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>21,15; 38,47</t>
+          <t>17,13; 28,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>15,78; 28,65</t>
+          <t>16,09; 31,47</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,28</t>
+          <t>18,98; 30,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>19,81; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,92; 35,01</t>
+          <t>12,84; 22,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,05</t>
+          <t>18,04; 28,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,46; 33,71</t>
+          <t>23,84; 33,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>19,6; 29,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,03</t>
+          <t>16,76; 24,21</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 27,7</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 30,45</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,21; 29,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>12,82; 32,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,1; 34,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,5; 28,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,61; 40,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,9; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>18,9; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>46,98; 67,02</t>
+          <t>13,44; 29,1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>45,39; 69,46</t>
+          <t>15,7; 29,18</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>44,12; 61,51</t>
+          <t>10,92; 20,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>43,41; 59,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>38,78; 58,24</t>
+          <t>9,95; 21,41</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>47,74; 64,99</t>
+          <t>9,63; 21,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>47,47; 60,52</t>
+          <t>11,56; 21,93</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>43,87; 59,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>47,79; 61,11</t>
+          <t>13,52; 22,28</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 23,44</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 19,37</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>56,4%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>57,28%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>16,36; 33,74</t>
+          <t>43,03; 59,84</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,73; 31,11</t>
+          <t>48,36; 63,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>14,73; 31,26</t>
+          <t>55,02; 67,59</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,2; 35,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,28; 30,85</t>
+          <t>53,52; 68,23</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,32; 42,41</t>
+          <t>49,53; 65,68</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>20,21; 31,91</t>
+          <t>57,6; 70,11</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>17,75; 28,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,98; 35,12</t>
+          <t>50,4; 62,22</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>51,37; 62,59</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>58,23; 67,16</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,94</t>
+          <t>21,09; 38,99</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,43</t>
+          <t>15,36; 29,1</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,32</t>
+          <t>18,3; 29,25</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,21</t>
+          <t>18,49; 31,44</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,73</t>
+          <t>20,1; 34,66</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,3</t>
+          <t>14,38; 25,37</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,23</t>
+          <t>21,56; 31,92</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 29,33</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 25,85</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>49,02; 57,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>54,24; 60,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>51,12; 57,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>53,33; 59,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>51,29; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>54,56; 59,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,87</t>
+          <t>12,3; 25,28</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,07</t>
+          <t>14,28; 31,6</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,91</t>
+          <t>18,01; 34,44</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,38</t>
+          <t>13,7; 26,45</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,29</t>
+          <t>17,18; 35,54</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,16</t>
+          <t>7,82; 18,73</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>22,69; 27,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>22,71; 26,63</t>
+          <t>15,04; 23,86</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 32,54</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 23,07</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>58,62%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>56,24%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>50,88%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>49,76%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>52,54%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>56,24%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 68,58</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>46,08; 66,83</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 62,39</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>41,68; 59,08</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 58,54</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>50,32; 66,32</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 60,4</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>44,73; 59,11</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>50,07; 61,94</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 31,45</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 31,05</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 31,22</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>22,09; 37,96</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 32,65</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 37,55</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 32,43</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 29,01</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 32,2</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 23,36</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 28,38</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 22,21</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 25,44</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 20,72</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 19,95</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 23,46</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 23,34</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 20,41</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>54,28%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>54,67%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>57,27%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>51,79; 59,45</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 57,91</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 61,29</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 57,77</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>51,19; 57,99</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 59,73</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>52,24; 57,21</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 56,67</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>55,05; 59,54</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 27,57</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 25,81</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 25,91</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 26,02</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 30,72</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 28,37</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 25,93</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 27,29</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 26,27</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
